--- a/CollectionSoftware3/SELVI SUPER MARKET (SHENOY).xlsx
+++ b/CollectionSoftware3/SELVI SUPER MARKET (SHENOY).xlsx
@@ -413,41 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>2023-07-18</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>20182</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>